--- a/biology/Botanique/Ononis_repens/Ononis_repens.xlsx
+++ b/biology/Botanique/Ononis_repens/Ononis_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ononis repens est une espèce de plantes du genre des Bugranes (Ononis) et de la famille des Fabaceae.
 Elle se retrouve principalement sur les rivages et dans les pâturages secs des collines calcaires ou crayeuses. C'est une vivace ligneuse prostrée aux feuilles petites et ovales. Les feuilles sont couvertes de poils glanduleux qui dégagent une odeur résineuse quand on les broie. Les fleurs sont roses et inodores, apparaissant de juillet à septembre. 
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Ononis repens subsp. antiquorum (L.) Greuter
 sous-espèce Ononis repens subsp. arvensis (L.) Greuter
 sous-espèce Ononis repens subsp. australis (Širj.) Devesa
